--- a/2025/Ehealth Insurance Project/ehealthinsurance_scraper/ehealthinsurance_scraper/input/EHealth Inputs and Outputs 2025-06-17.xlsx
+++ b/2025/Ehealth Insurance Project/ehealthinsurance_scraper/ehealthinsurance_scraper/input/EHealth Inputs and Outputs 2025-06-17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional Work\The genx\The-GenX\2025\Ehealth Insurance Project\ehealthinsurance_scraper\ehealthinsurance_scraper\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Ahmed\Downloads\Ehealth Insurance Project\ehealthinsurance_scraper\ehealthinsurance_scraper\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75690058-2859-4189-BF34-33F1E04A6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0E59F-4DDC-4F77-B8F7-FA9643B42A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2316" windowWidth="11184" windowHeight="9120" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10212" yWindow="2928" windowWidth="12780" windowHeight="9120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Info Input" sheetId="5" r:id="rId1"/>
@@ -343,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,13 +380,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,9 +516,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20DE787-844F-43D9-925A-2E94A1C4C07B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,19 +1109,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5F2B62-74FF-4EC9-A8BF-809950A92353}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1232,32 +1216,32 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>38</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6">
         <v>38</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1276,68 +1260,68 @@
       </c>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>41</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>44</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9">
         <v>44</v>
       </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>42</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1354,32 +1338,32 @@
       </c>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>49</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12">
         <v>49</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <v>10</v>
       </c>
     </row>
